--- a/docs/excel/genericTempProductCatalog.xlsx
+++ b/docs/excel/genericTempProductCatalog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ystz3843\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481D24B-2DFC-40EB-8479-4DCA9AA7FC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B0012B-3C50-4FD9-AB09-E0008A27CC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{47A0D9CE-6847-499D-9531-B8A277352A0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Editor</t>
   </si>
@@ -161,6 +161,12 @@
   <si>
     <t>WISHED
 Format : Closed source, Open source,Open source and Closed source;e.g.:OpenSource</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>Wished Values: AUTHOURIZED,BLACKLISTED,RECOMMENDED,NONE</t>
   </si>
 </sst>
 </file>
@@ -577,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561D9211-AB12-45CC-89CF-419F10E0CBE8}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,9 +597,10 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +622,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="84" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -638,7 +648,10 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -649,4 +662,10 @@
     <oddFooter>&amp;C&amp;1#&amp;"Helvetica 75 Bold"&amp;8&amp;KED7D31Orange Restricted</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{e6c818a6-e1a0-4a6e-a969-20d857c5dc62}" enabled="1" method="Standard" siteId="{90c7a20a-f34b-40bf-bc48-b9253b6f5d20}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>